--- a/table_parameters.xlsx
+++ b/table_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beatrice\Documents\GitHub\CEA-anticoag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files.brown.edu\Home\ahuang75\Documents\GitHub\CEA-anticoag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0536F94E-4747-4306-B6C7-93BFCA9CEDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3623FD64-2BD7-4053-BDA2-5CD16A1D8C11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A1A3F554-E03A-40EA-9AFF-1ACF62AFF487}"/>
   </bookViews>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -206,6 +206,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://lh3.googleusercontent.com/Nveh3iM5QJdsL4z4rW34_jSFfndhAE6QqZHhXU-GTztpzM480HMV5raxBTt9V4vmsVBUoAo0nxyayW30oXZPueRmCVO_CHnHetai8HiqdCfazUySrtZwpR-iKjXtixCiGWPOTORNaoj5Frfje_k1vA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFBED46-B2EE-48DB-A45D-84A672C2588E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4641850" y="0"/>
+          <a:ext cx="5651500" cy="7175500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,18 +574,18 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,20 +599,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -556,7 +621,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -566,7 +631,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -574,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -582,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -590,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -598,12 +663,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -614,7 +679,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -625,7 +690,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -636,7 +701,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -647,7 +712,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -658,12 +723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -674,7 +739,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -685,7 +750,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -696,7 +761,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -707,7 +772,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -718,19 +783,19 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -739,7 +804,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -748,7 +813,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -756,7 +821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -764,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -772,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -780,12 +845,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -796,7 +861,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -807,7 +872,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -818,7 +883,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -829,7 +894,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -840,12 +905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -856,7 +921,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -867,7 +932,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -878,7 +943,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -889,7 +954,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -903,5 +968,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>